--- a/va_facility_data_2025-02-20/South Charlotte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Charlotte%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/South Charlotte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Charlotte%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raa1f38ba74ae4663b430c3faf046b399"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R786ca001b14c414f873cbf3d03fd8b13"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9f1b9dc4372b4020a15722ac7c888382"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1c55c5894bcd41199ccee74652636792"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcea4bcc7a10c404a8ee525a4511c8d80"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R76cc4dbd61bb49ccae98e970329129d1"/>
   </x:sheets>
 </x:workbook>
 </file>
